--- a/PaperAppendices/ARDiff/assets/EquivalentBenchmark.xlsx
+++ b/PaperAppendices/ARDiff/assets/EquivalentBenchmark.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sahar1/Documents/Projects/Equivalence Checking/results/MainFiles/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sahar1/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05CBE300-31CF-7945-B411-5093E671D024}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5701FFF-19AC-954E-8731-E195EFAAB0AE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{8B77D404-D883-304A-93B9-C70AF0CD0F67}"/>
+    <workbookView xWindow="-38400" yWindow="-2280" windowWidth="38400" windowHeight="21600" xr2:uid="{8B77D404-D883-304A-93B9-C70AF0CD0F67}"/>
   </bookViews>
   <sheets>
     <sheet name="Eq" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="152">
   <si>
     <t>Benchmarks</t>
   </si>
@@ -97,9 +97,6 @@
     <t>ran(0)</t>
   </si>
   <si>
-    <t>F, E, E</t>
-  </si>
-  <si>
     <t>test</t>
   </si>
   <si>
@@ -139,9 +136,6 @@
     <t>D,U</t>
   </si>
   <si>
-    <t>M, E, E</t>
-  </si>
-  <si>
     <t>I,U,U</t>
   </si>
   <si>
@@ -199,9 +193,6 @@
     <t>M,E,E</t>
   </si>
   <si>
-    <t>U,I,U</t>
-  </si>
-  <si>
     <t>bessy1</t>
   </si>
   <si>
@@ -226,9 +217,6 @@
     <t>julday</t>
   </si>
   <si>
-    <t>F, M, M</t>
-  </si>
-  <si>
     <t>D,I</t>
   </si>
   <si>
@@ -286,9 +274,6 @@
     <t>betacf</t>
   </si>
   <si>
-    <t>I,UU</t>
-  </si>
-  <si>
     <t>betai</t>
   </si>
   <si>
@@ -317,9 +302,6 @@
   </si>
   <si>
     <t>gser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">simplifying the return statement </t>
   </si>
   <si>
     <t>Bess</t>
@@ -368,9 +350,6 @@
     <t>Refactoring (extract variable), replace variable, replace variable</t>
   </si>
   <si>
-    <t>Refactoring (extract variable) , replace variable, replace variable</t>
-  </si>
-  <si>
     <t>negate the if condition</t>
   </si>
   <si>
@@ -395,119 +374,122 @@
     <t>U,I</t>
   </si>
   <si>
-    <t>I,D</t>
-  </si>
-  <si>
     <t>replace variable, replace variable</t>
   </si>
   <si>
-    <t xml:space="preserve">I,D,U </t>
-  </si>
-  <si>
-    <t xml:space="preserve">refactoring (extract var), remove unused variable, replace variable </t>
-  </si>
-  <si>
     <t>remove unused variable, remove deadcode</t>
   </si>
   <si>
-    <t>adding deadcode, Refactoring (extract variable), replace variable</t>
-  </si>
-  <si>
     <t>I,I,U</t>
   </si>
   <si>
     <t>split variable, replace variable, replace variable</t>
   </si>
   <si>
+    <t>Refactoring (extract variable), replace variable, simplify the equation</t>
+  </si>
+  <si>
+    <t>simplify if condition, extract variable, extract variabe</t>
+  </si>
+  <si>
+    <t>split the if condition</t>
+  </si>
+  <si>
+    <t>I,U,I</t>
+  </si>
+  <si>
+    <t>Refactoring (removing magic number),remove unused variable</t>
+  </si>
+  <si>
+    <t>Type of Change</t>
+  </si>
+  <si>
+    <t>change dead code, replace variable, replace variable</t>
+  </si>
+  <si>
+    <t>negating the condition</t>
+  </si>
+  <si>
+    <t>simplify the equation, remove unused variable</t>
+  </si>
+  <si>
+    <t>Updating dummy assignment, negate the if condition</t>
+  </si>
+  <si>
+    <t>negate the if condition, replace variable, replace variable</t>
+  </si>
+  <si>
+    <t>replace variable , replace variable, replace variable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">refactoring (extract var), insert dummy statement, replace variable </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I,I,U </t>
+  </si>
+  <si>
+    <t>inserting dummy statements, Refactoring (extract variable), replace variable</t>
+  </si>
+  <si>
+    <t>simplify the equation, replace variable, replace variable</t>
+  </si>
+  <si>
     <t>replace variable, simplify the equation</t>
   </si>
   <si>
-    <t>simplify the equation, replace variable, simplify the equation</t>
-  </si>
-  <si>
-    <t>split variable,simplify the equation</t>
-  </si>
-  <si>
-    <t>Refactoring (extract variable), replace variable, simplify the equation</t>
-  </si>
-  <si>
-    <t>simplify if condition, extract variable, extract variabe</t>
-  </si>
-  <si>
-    <t>slide statement</t>
-  </si>
-  <si>
-    <t>change dead code, replace variable</t>
-  </si>
-  <si>
-    <t>Refactoring (extract variable), simplify if condition</t>
-  </si>
-  <si>
-    <t>simplifying the variables</t>
-  </si>
-  <si>
-    <t>split the if condition</t>
-  </si>
-  <si>
-    <t>Refactoring (extract variable), Refactoring (extract variable), Refactoring (extract variable)</t>
-  </si>
-  <si>
-    <t>I,U,I</t>
-  </si>
-  <si>
-    <t>negating the condition,simplify the condition, simplify the condition</t>
-  </si>
-  <si>
-    <t>U,D,D</t>
-  </si>
-  <si>
-    <t>Refactoring (removing magic number),remove unused variable</t>
-  </si>
-  <si>
-    <t>negate the condition of th if statement, simplify the equation</t>
-  </si>
-  <si>
-    <t>replace the formula, Refactoring (extract variable)</t>
-  </si>
-  <si>
-    <t>remove unused variable, split variable</t>
-  </si>
-  <si>
-    <t>D,I,U</t>
-  </si>
-  <si>
-    <t>remove magic number, remove unused variable</t>
-  </si>
-  <si>
-    <t>simplify the equation, simplify the equation</t>
-  </si>
-  <si>
-    <t>simplify the equation, simplify the equation, remove unused variable</t>
-  </si>
-  <si>
-    <t>Type of Change</t>
-  </si>
-  <si>
-    <t>simplify the if condition, replace variable</t>
-  </si>
-  <si>
-    <t>simplify the if condition, simplify the conditional block</t>
-  </si>
-  <si>
-    <t>split the if condition by introducing two variables</t>
-  </si>
-  <si>
-    <t>simplify the equation, slide statements</t>
-  </si>
-  <si>
-    <t>remove magic number</t>
+    <t>simplify the equation, split variable</t>
+  </si>
+  <si>
+    <t>U,U,D</t>
+  </si>
+  <si>
+    <t>Refactoring (extract variable), replace the variable</t>
+  </si>
+  <si>
+    <t>I,I</t>
+  </si>
+  <si>
+    <t>name the return values</t>
+  </si>
+  <si>
+    <t>replace variable, change dummy value, delete the unused variable (merge with the variable definition)</t>
+  </si>
+  <si>
+    <t>Adding a dummy statement, change the if condition, replace variable</t>
+  </si>
+  <si>
+    <t>negate the if condition, replace the variable</t>
+  </si>
+  <si>
+    <t>inserting dummy statement</t>
+  </si>
+  <si>
+    <t>I,D,U</t>
+  </si>
+  <si>
+    <t>remove magic number, remove unused variable, update value with variable</t>
+  </si>
+  <si>
+    <t>insert variable, delete unused variable, name the return value</t>
+  </si>
+  <si>
+    <t>inserting dummy statement, replace the variable. Inserting dummy statement</t>
+  </si>
+  <si>
+    <t>simplify the if condition, update the if condition, replace variable</t>
+  </si>
+  <si>
+    <t>Updating the initial assignment, update the variable, update the variable</t>
+  </si>
+  <si>
+    <t>simplify the equation, update dummy value</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1209,11 +1191,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EC00B17-AF50-6342-8A64-30765A774F71}">
   <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="17" style="1" customWidth="1"/>
@@ -1228,12 +1210,12 @@
     <col min="13" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33" customHeight="1">
+    <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C1" s="37" t="s">
         <v>1</v>
@@ -1242,16 +1224,16 @@
         <v>2</v>
       </c>
       <c r="E1" s="33" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F1" s="29" t="s">
-        <v>152</v>
+        <v>124</v>
       </c>
       <c r="G1" s="31" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="37" customHeight="1" thickBot="1">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="37" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="38"/>
       <c r="B2" s="36"/>
       <c r="C2" s="38"/>
@@ -1261,12 +1243,12 @@
       <c r="G2" s="32"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" s="4">
         <v>5</v>
@@ -1275,19 +1257,19 @@
         <v>3</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="17" customHeight="1" thickBot="1">
+    </row>
+    <row r="4" spans="1:8" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27"/>
       <c r="B4" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" s="6">
         <v>13</v>
@@ -1296,21 +1278,21 @@
         <v>3</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" s="4">
         <v>38</v>
@@ -1319,19 +1301,19 @@
         <v>3</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="27"/>
       <c r="B6" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C6" s="6">
         <v>13</v>
@@ -1340,19 +1322,19 @@
         <v>3</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="27"/>
       <c r="B7" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C7" s="6">
         <v>19</v>
@@ -1364,16 +1346,16 @@
         <v>3</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="27"/>
       <c r="B8" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C8" s="6">
         <v>60</v>
@@ -1382,19 +1364,19 @@
         <v>3</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="27"/>
       <c r="B9" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C9" s="6">
         <v>24</v>
@@ -1403,19 +1385,19 @@
         <v>2</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="27"/>
       <c r="B10" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C10" s="6">
         <v>27</v>
@@ -1424,19 +1406,19 @@
         <v>2</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="27"/>
       <c r="B11" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C11" s="6">
         <v>16</v>
@@ -1448,37 +1430,37 @@
         <v>3</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="27"/>
       <c r="B12" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C12" s="6">
         <v>11</v>
       </c>
       <c r="D12" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="27"/>
       <c r="B13" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C13" s="6">
         <v>11</v>
@@ -1487,19 +1469,19 @@
         <v>3</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="17" customHeight="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="27"/>
       <c r="B14" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C14" s="6">
         <v>16</v>
@@ -1511,16 +1493,16 @@
         <v>21</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="17" customHeight="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="27"/>
       <c r="B15" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C15" s="6">
         <v>20</v>
@@ -1532,16 +1514,16 @@
         <v>6</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="17" customHeight="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="27"/>
       <c r="B16" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C16" s="6">
         <v>21</v>
@@ -1550,19 +1532,19 @@
         <v>2</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="17" customHeight="1">
+    <row r="17" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="27"/>
       <c r="B17" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C17" s="6">
         <v>41</v>
@@ -1571,19 +1553,19 @@
         <v>3</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="17" customHeight="1">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="27"/>
       <c r="B18" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C18" s="6">
         <v>19</v>
@@ -1592,19 +1574,19 @@
         <v>2</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="17" customHeight="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="27"/>
       <c r="B19" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C19" s="6">
         <v>13</v>
@@ -1613,19 +1595,19 @@
         <v>3</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="17" customHeight="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="27"/>
       <c r="B20" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" s="6">
         <v>13</v>
@@ -1634,19 +1616,19 @@
         <v>3</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="17" customHeight="1" thickBot="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="27"/>
       <c r="B21" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C21" s="11">
         <v>3</v>
@@ -1655,21 +1637,21 @@
         <v>2</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="26" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C22" s="6">
         <v>45</v>
@@ -1678,19 +1660,19 @@
         <v>3</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="20" thickBot="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="27"/>
       <c r="B23" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C23" s="6">
         <v>22</v>
@@ -1702,18 +1684,18 @@
         <v>19</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="20" thickBot="1">
+    <row r="24" spans="1:7" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="14" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C24" s="16">
         <v>9</v>
@@ -1722,42 +1704,42 @@
         <v>2</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="G24" s="17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="39" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C25" s="6">
         <v>61</v>
       </c>
       <c r="D25" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="40"/>
       <c r="B26" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C26" s="6">
         <v>59</v>
@@ -1766,19 +1748,19 @@
         <v>3</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="40"/>
       <c r="B27" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C27" s="6">
         <v>79</v>
@@ -1787,19 +1769,19 @@
         <v>3</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="40"/>
       <c r="B28" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C28" s="6">
         <v>53</v>
@@ -1808,19 +1790,19 @@
         <v>2</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="40"/>
       <c r="B29" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C29" s="6">
         <v>26</v>
@@ -1838,52 +1820,52 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C30" s="6">
         <v>37</v>
       </c>
       <c r="D30" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="40"/>
       <c r="B31" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C31" s="6">
         <v>21</v>
       </c>
       <c r="D31" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="40"/>
       <c r="B32" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C32" s="6">
         <v>31</v>
@@ -1892,19 +1874,19 @@
         <v>3</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="18" customHeight="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="40"/>
       <c r="B33" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C33" s="6">
         <v>6</v>
@@ -1913,19 +1895,19 @@
         <v>3</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="18" customHeight="1" thickBot="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="40"/>
       <c r="B34" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C34" s="6">
         <v>6</v>
@@ -1937,18 +1919,18 @@
         <v>6</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="G34" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="26" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C35" s="4">
         <v>36</v>
@@ -1957,19 +1939,19 @@
         <v>3</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="27"/>
       <c r="B36" s="3" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C36" s="6">
         <v>10</v>
@@ -1978,61 +1960,61 @@
         <v>3</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="27"/>
       <c r="B37" s="3" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C37" s="6">
         <v>35</v>
       </c>
       <c r="D37" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="27"/>
       <c r="B38" s="3" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C38" s="6">
         <v>7</v>
       </c>
       <c r="D38" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="27"/>
       <c r="B39" s="3" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C39" s="6">
         <v>51</v>
@@ -2044,16 +2026,16 @@
         <v>21</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="27"/>
       <c r="B40" s="3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C40" s="6">
         <v>8</v>
@@ -2062,84 +2044,84 @@
         <v>2</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="27"/>
       <c r="B41" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C41" s="6">
         <v>8</v>
       </c>
       <c r="D41" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="27"/>
       <c r="B42" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C42" s="6">
         <v>25</v>
       </c>
       <c r="D42" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>140</v>
+        <v>109</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="20" thickBot="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="28"/>
       <c r="B43" s="10" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C43" s="11">
         <v>23</v>
       </c>
       <c r="D43" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>97</v>
+        <v>142</v>
       </c>
       <c r="G43" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="20" thickBot="1">
+    <row r="44" spans="1:7" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="19" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C44" s="6">
         <v>22</v>
@@ -2151,15 +2133,15 @@
         <v>3</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="26" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B45" s="7" t="s">
         <v>9</v>
@@ -2171,16 +2153,16 @@
         <v>2</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="27"/>
       <c r="B46" s="3" t="s">
         <v>20</v>
@@ -2189,19 +2171,19 @@
         <v>40</v>
       </c>
       <c r="D46" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="27"/>
       <c r="B47" s="3" t="s">
         <v>11</v>
@@ -2213,16 +2195,16 @@
         <v>3</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F47" s="6" t="s">
         <v>147</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="27"/>
       <c r="B48" s="3" t="s">
         <v>13</v>
@@ -2231,19 +2213,19 @@
         <v>39</v>
       </c>
       <c r="D48" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="27"/>
       <c r="B49" s="3" t="s">
         <v>14</v>
@@ -2255,16 +2237,16 @@
         <v>2</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G49" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="27"/>
       <c r="B50" s="3" t="s">
         <v>16</v>
@@ -2273,19 +2255,19 @@
         <v>15</v>
       </c>
       <c r="D50" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="27"/>
       <c r="B51" s="3" t="s">
         <v>22</v>
@@ -2294,19 +2276,19 @@
         <v>18</v>
       </c>
       <c r="D51" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="20" customHeight="1" thickBot="1">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="27"/>
       <c r="B52" s="3" t="s">
         <v>18</v>
@@ -2321,18 +2303,18 @@
         <v>3</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="G52" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="17" customHeight="1" thickBot="1">
+    <row r="53" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="20" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B53" s="21" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C53" s="22">
         <v>148</v>
@@ -2341,21 +2323,21 @@
         <v>2</v>
       </c>
       <c r="E53" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F53" s="22" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G53" s="23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="26" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C54" s="4">
         <v>19</v>
@@ -2364,60 +2346,60 @@
         <v>3</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G54" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="27"/>
       <c r="B55" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C55" s="6">
         <v>11</v>
       </c>
       <c r="D55" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="20" thickBot="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="27"/>
       <c r="B56" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C56" s="6">
         <v>11</v>
       </c>
       <c r="D56" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="17" customHeight="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="26" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B57" s="7" t="s">
         <v>12</v>
@@ -2429,16 +2411,16 @@
         <v>2</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="G57" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="17" customHeight="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="27"/>
       <c r="B58" s="3" t="s">
         <v>5</v>
@@ -2453,13 +2435,13 @@
         <v>6</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>157</v>
+        <v>109</v>
       </c>
       <c r="G58" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="17" customHeight="1" thickBot="1">
+    <row r="59" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="28"/>
       <c r="B59" s="10" t="s">
         <v>7</v>
@@ -2471,19 +2453,19 @@
         <v>2</v>
       </c>
       <c r="E59" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F59" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G59" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="25"/>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="25"/>
     </row>
   </sheetData>
